--- a/HC Services.xlsx
+++ b/HC Services.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{097D2CB1-D7EC-478C-A0B6-C90BFDF3A371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB9B5EDA-0FDA-48EB-B0BE-DCE68EC0383A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36000" yWindow="1455" windowWidth="34035" windowHeight="18450" xr2:uid="{C4E93C08-663D-492A-AEC7-938C289047C3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{C4E93C08-663D-492A-AEC7-938C289047C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="124">
   <si>
     <t>Name</t>
   </si>
@@ -398,6 +398,24 @@
   </si>
   <si>
     <t>Q322</t>
+  </si>
+  <si>
+    <t>Universal Health</t>
+  </si>
+  <si>
+    <t>UHS</t>
+  </si>
+  <si>
+    <t>Hapvida</t>
+  </si>
+  <si>
+    <t>HAPV3 BZ</t>
+  </si>
+  <si>
+    <t>Chemed</t>
+  </si>
+  <si>
+    <t>CHE</t>
   </si>
 </sst>
 </file>
@@ -478,6 +496,9 @@
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Models"/>
@@ -540,37 +561,6 @@
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Models"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="N3">
-            <v>116.348405</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="N5">
-            <v>148.32900000000001</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="N6">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
@@ -593,6 +583,37 @@
         <row r="6">
           <cell r="J6">
             <v>38749</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Models"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="N3">
+            <v>116.348405</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="N5">
+            <v>148.32900000000001</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="N6">
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -891,7 +912,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -899,13 +920,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46F7AEE9-EF00-4FDA-B370-F11DB8E9EFA2}">
-  <dimension ref="A2:K41"/>
+  <dimension ref="A2:K44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomRight" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1035,7 +1056,7 @@
         <v>114468.84489600001</v>
       </c>
       <c r="F5" s="3">
-        <f>+[4]Main!$J$5-[4]Main!$J$6</f>
+        <f>+[3]Main!$J$5-[3]Main!$J$6</f>
         <v>3290</v>
       </c>
       <c r="G5" s="3">
@@ -1043,7 +1064,7 @@
         <v>111178.84489600001</v>
       </c>
       <c r="H5" s="3">
-        <f>+[4]Main!$J$3</f>
+        <f>+[3]Main!$J$3</f>
         <v>238.97462400000001</v>
       </c>
       <c r="I5" s="2" t="s">
@@ -1057,12 +1078,15 @@
       <c r="A6" t="s">
         <v>56</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
       </c>
+      <c r="J6" s="4">
+        <v>45011</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -1208,181 +1232,181 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>56</v>
+      </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>118</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C23" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C25" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C26" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C27" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C29" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C30" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C31" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
         <v>79</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C33" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B33" s="1" t="s">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B34" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C34" t="s">
         <v>44</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D34" s="2">
         <v>1.79</v>
       </c>
-      <c r="E33" s="3">
-        <f>+D33*H33</f>
+      <c r="E34" s="3">
+        <f>+D34*H34</f>
         <v>208.26364495000001</v>
       </c>
-      <c r="F33" s="3">
-        <f>+[3]Main!$N$5-[3]Main!$N$6</f>
+      <c r="F34" s="3">
+        <f>+[4]Main!$N$5-[4]Main!$N$6</f>
         <v>148.32900000000001</v>
       </c>
-      <c r="G33" s="3">
-        <f>+E33-F33</f>
+      <c r="G34" s="3">
+        <f>+E34-F34</f>
         <v>59.934644950000006</v>
       </c>
-      <c r="H33" s="3">
-        <f>+[3]Main!$N$3</f>
+      <c r="H34" s="3">
+        <f>+[4]Main!$N$3</f>
         <v>116.348405</v>
       </c>
-      <c r="I33" s="2" t="s">
+      <c r="I34" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="J33" s="4">
+      <c r="J34" s="4">
         <v>44791</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
         <v>81</v>
       </c>
-      <c r="K34" t="s">
+      <c r="K35" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35" t="s">
-        <v>84</v>
-      </c>
-      <c r="C35" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="B36" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C36" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="B37" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C37" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
@@ -1390,10 +1414,10 @@
         <v>56</v>
       </c>
       <c r="B38" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C38" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
@@ -1401,10 +1425,10 @@
         <v>56</v>
       </c>
       <c r="B39" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C39" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
@@ -1412,10 +1436,10 @@
         <v>56</v>
       </c>
       <c r="B40" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C40" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
@@ -1423,21 +1447,55 @@
         <v>56</v>
       </c>
       <c r="B41" t="s">
+        <v>95</v>
+      </c>
+      <c r="C41" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>56</v>
+      </c>
+      <c r="B42" t="s">
         <v>97</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C42" t="s">
         <v>98</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>56</v>
+      </c>
+      <c r="B43" t="s">
+        <v>120</v>
+      </c>
+      <c r="C43" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>56</v>
+      </c>
+      <c r="B44" t="s">
+        <v>122</v>
+      </c>
+      <c r="C44" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1" xr:uid="{7B2636F0-BE29-4011-BA7C-DC63A8515BA5}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{9E348503-3AE7-4682-84B0-5168194A64CE}"/>
-    <hyperlink ref="B33" r:id="rId3" xr:uid="{D0C0A315-E060-4161-8384-69E332154276}"/>
+    <hyperlink ref="B34" r:id="rId3" xr:uid="{D0C0A315-E060-4161-8384-69E332154276}"/>
     <hyperlink ref="B5" r:id="rId4" xr:uid="{E1A45D9E-6D14-4368-BE56-B4AE73B3148F}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{A4CD829C-FA5F-4E8F-A091-9BC35370EDB8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId5"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId6"/>
 </worksheet>
 </file>
 

--- a/HC Services.xlsx
+++ b/HC Services.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinshkreli/code/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB9B5EDA-0FDA-48EB-B0BE-DCE68EC0383A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C7C9F8-D3EE-F84C-8291-4E6BD0FE250A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{C4E93C08-663D-492A-AEC7-938C289047C3}"/>
+    <workbookView xWindow="-40180" yWindow="-20700" windowWidth="22460" windowHeight="17080" xr2:uid="{C4E93C08-663D-492A-AEC7-938C289047C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="124">
   <si>
     <t>Name</t>
   </si>
@@ -624,9 +624,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -664,7 +664,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -770,7 +770,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -912,7 +912,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -926,18 +926,18 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J7" sqref="J7"/>
+      <selection pane="bottomRight" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" customWidth="1"/>
-    <col min="4" max="10" width="9.140625" style="2"/>
+    <col min="2" max="2" width="18.83203125" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="4" max="10" width="9.1640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -966,7 +966,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>56</v>
       </c>
@@ -1002,7 +1002,7 @@
         <v>44793</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>56</v>
       </c>
@@ -1038,7 +1038,7 @@
         <v>44799</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -1074,7 +1074,7 @@
         <v>44947</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>56</v>
       </c>
@@ -1084,11 +1084,14 @@
       <c r="C6" t="s">
         <v>10</v>
       </c>
+      <c r="D6" s="2">
+        <v>254.03</v>
+      </c>
       <c r="J6" s="4">
         <v>45011</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>56</v>
       </c>
@@ -1099,7 +1102,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>56</v>
       </c>
@@ -1110,7 +1113,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>56</v>
       </c>
@@ -1121,7 +1124,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>56</v>
       </c>
@@ -1132,7 +1135,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>56</v>
       </c>
@@ -1143,7 +1146,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>56</v>
       </c>
@@ -1154,7 +1157,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>56</v>
       </c>
@@ -1165,10 +1168,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>56</v>
-      </c>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
         <v>59</v>
       </c>
@@ -1176,7 +1176,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>56</v>
       </c>
@@ -1187,10 +1187,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>56</v>
-      </c>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
         <v>61</v>
       </c>
@@ -1198,7 +1195,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>56</v>
       </c>
@@ -1209,10 +1206,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>56</v>
-      </c>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
         <v>63</v>
       </c>
@@ -1220,7 +1214,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>56</v>
       </c>
@@ -1231,10 +1225,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>56</v>
-      </c>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
         <v>118</v>
       </c>
@@ -1242,7 +1233,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
         <v>25</v>
       </c>
@@ -1250,7 +1241,10 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>56</v>
+      </c>
       <c r="B22" t="s">
         <v>27</v>
       </c>
@@ -1258,7 +1252,10 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>56</v>
+      </c>
       <c r="B23" t="s">
         <v>29</v>
       </c>
@@ -1266,7 +1263,10 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>56</v>
+      </c>
       <c r="B24" t="s">
         <v>31</v>
       </c>
@@ -1274,7 +1274,10 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>56</v>
+      </c>
       <c r="B25" t="s">
         <v>33</v>
       </c>
@@ -1282,7 +1285,10 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>56</v>
+      </c>
       <c r="B26" t="s">
         <v>37</v>
       </c>
@@ -1290,7 +1296,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>56</v>
+      </c>
       <c r="B27" t="s">
         <v>35</v>
       </c>
@@ -1298,7 +1307,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
         <v>39</v>
       </c>
@@ -1306,7 +1315,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
         <v>65</v>
       </c>
@@ -1314,7 +1323,10 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>56</v>
+      </c>
       <c r="B30" t="s">
         <v>67</v>
       </c>
@@ -1322,7 +1334,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
         <v>69</v>
       </c>
@@ -1330,7 +1342,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
         <v>71</v>
       </c>
@@ -1338,7 +1350,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
         <v>79</v>
       </c>
@@ -1346,7 +1358,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B34" s="1" t="s">
         <v>43</v>
       </c>
@@ -1379,7 +1391,7 @@
         <v>44791</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
         <v>81</v>
       </c>
@@ -1387,7 +1399,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>56</v>
       </c>
@@ -1398,7 +1410,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>86</v>
       </c>
@@ -1409,7 +1421,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>56</v>
       </c>
@@ -1420,7 +1432,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>56</v>
       </c>
@@ -1431,7 +1443,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>56</v>
       </c>
@@ -1442,7 +1454,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>56</v>
       </c>
@@ -1453,7 +1465,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>56</v>
       </c>
@@ -1464,7 +1476,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>56</v>
       </c>
@@ -1475,7 +1487,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>56</v>
       </c>
@@ -1503,13 +1515,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96907ADA-06DE-4EF9-838A-68544D652820}">
   <dimension ref="B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>112</v>
       </c>
@@ -1526,21 +1536,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21DE9255-CFE9-4043-A2BC-99E9D42B4CC5}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
       <c r="E2" t="s">
         <v>73</v>
@@ -1549,12 +1557,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>53</v>
       </c>
@@ -1565,7 +1573,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>78</v>
       </c>
@@ -1576,17 +1584,17 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>114</v>
       </c>
@@ -1609,21 +1617,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E946CBC6-AB19-4864-8781-64E78709BBCD}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C16"/>
-    </sheetView>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>56</v>
       </c>
@@ -1634,7 +1650,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>56</v>
       </c>
@@ -1645,10 +1661,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>56</v>
-      </c>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>111</v>
       </c>
@@ -1656,10 +1669,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>56</v>
-      </c>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>109</v>
       </c>
@@ -1667,47 +1677,47 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
         <v>99</v>
       </c>
